--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,10 +82,10 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Fgf1</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H2">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I2">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J2">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.243417666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N2">
-        <v>15.730253</v>
+        <v>13.855658</v>
       </c>
       <c r="O2">
-        <v>0.8253998362974575</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P2">
-        <v>0.8253998362974574</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q2">
-        <v>3.503321349553666</v>
+        <v>1.225528331547333</v>
       </c>
       <c r="R2">
-        <v>31.52989214598299</v>
+        <v>11.029754983926</v>
       </c>
       <c r="S2">
-        <v>0.2159681328538076</v>
+        <v>0.1175489100917671</v>
       </c>
       <c r="T2">
-        <v>0.2159681328538076</v>
+        <v>0.1175489100917671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H3">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I3">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J3">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q3">
-        <v>0.4538645732506665</v>
+        <v>0.1802512219013333</v>
       </c>
       <c r="R3">
-        <v>4.084781159255999</v>
+        <v>1.622260997112</v>
       </c>
       <c r="S3">
-        <v>0.02797924445781279</v>
+        <v>0.01728914308366819</v>
       </c>
       <c r="T3">
-        <v>0.02797924445781279</v>
+        <v>0.01728914308366819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H4">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I4">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J4">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4298626666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N4">
-        <v>1.289588</v>
+        <v>1.436811</v>
       </c>
       <c r="O4">
-        <v>0.06766742557104236</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P4">
-        <v>0.06766742557104236</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q4">
-        <v>0.2872071525186666</v>
+        <v>0.127085454013</v>
       </c>
       <c r="R4">
-        <v>2.584864372668</v>
+        <v>1.143769086117</v>
       </c>
       <c r="S4">
-        <v>0.01770536764479732</v>
+        <v>0.01218964606789963</v>
       </c>
       <c r="T4">
-        <v>0.01770536764479733</v>
+        <v>0.01218964606789963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.003400666666667</v>
+        <v>0.265349</v>
       </c>
       <c r="H5">
-        <v>3.010202</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I5">
-        <v>0.3929471631183917</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J5">
-        <v>0.3929471631183917</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.243417666666667</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N5">
-        <v>15.730253</v>
+        <v>0.334861</v>
       </c>
       <c r="O5">
-        <v>0.8253998362974575</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P5">
-        <v>0.8253998362974574</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q5">
-        <v>5.261248782345111</v>
+        <v>0.02961834382966667</v>
       </c>
       <c r="R5">
-        <v>47.35123904110599</v>
+        <v>0.266565094467</v>
       </c>
       <c r="S5">
-        <v>0.3243385241114708</v>
+        <v>0.002840900488611889</v>
       </c>
       <c r="T5">
-        <v>0.3243385241114708</v>
+        <v>0.00284090048861189</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>3.010202</v>
       </c>
       <c r="I6">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J6">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6792986666666666</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N6">
-        <v>2.037896</v>
+        <v>13.855658</v>
       </c>
       <c r="O6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q6">
-        <v>0.681608734999111</v>
+        <v>4.634258824768445</v>
       </c>
       <c r="R6">
-        <v>6.134478614991999</v>
+        <v>41.70832942291599</v>
       </c>
       <c r="S6">
-        <v>0.04201891609325482</v>
+        <v>0.4445038600183879</v>
       </c>
       <c r="T6">
-        <v>0.04201891609325482</v>
+        <v>0.4445038600183878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>3.010202</v>
       </c>
       <c r="I7">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J7">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4298626666666667</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N7">
-        <v>1.289588</v>
+        <v>2.037896</v>
       </c>
       <c r="O7">
-        <v>0.06766742557104236</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P7">
-        <v>0.06766742557104236</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q7">
-        <v>0.4313244863084445</v>
+        <v>0.681608734999111</v>
       </c>
       <c r="R7">
-        <v>3.881920376776</v>
+        <v>6.134478614991999</v>
       </c>
       <c r="S7">
-        <v>0.02658972291366601</v>
+        <v>0.0653778144867629</v>
       </c>
       <c r="T7">
-        <v>0.02658972291366601</v>
+        <v>0.0653778144867629</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,25 +900,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.02002233333333333</v>
+        <v>1.003400666666667</v>
       </c>
       <c r="H8">
-        <v>0.060067</v>
+        <v>3.010202</v>
       </c>
       <c r="I8">
-        <v>0.007841054270455084</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J8">
-        <v>0.007841054270455085</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.243417666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N8">
-        <v>15.730253</v>
+        <v>1.436811</v>
       </c>
       <c r="O8">
-        <v>0.8253998362974575</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P8">
-        <v>0.8253998362974574</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q8">
-        <v>0.1049854563278889</v>
+        <v>0.4805657050913333</v>
       </c>
       <c r="R8">
-        <v>0.9448691069509999</v>
+        <v>4.325091345822</v>
       </c>
       <c r="S8">
-        <v>0.006472004911233106</v>
+        <v>0.04609438509646238</v>
       </c>
       <c r="T8">
-        <v>0.006472004911233107</v>
+        <v>0.04609438509646238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.003400666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.010202</v>
+      </c>
+      <c r="I9">
+        <v>0.5667187473230926</v>
+      </c>
+      <c r="J9">
+        <v>0.5667187473230925</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.02002233333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.060067</v>
-      </c>
-      <c r="I9">
-        <v>0.007841054270455084</v>
-      </c>
-      <c r="J9">
-        <v>0.007841054270455085</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M9">
-        <v>0.6792986666666666</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N9">
-        <v>2.037896</v>
+        <v>0.334861</v>
       </c>
       <c r="O9">
-        <v>0.1069327381315001</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P9">
-        <v>0.1069327381315001</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q9">
-        <v>0.01360114433688889</v>
+        <v>0.1119999168802222</v>
       </c>
       <c r="R9">
-        <v>0.122410299032</v>
+        <v>1.007999251922</v>
       </c>
       <c r="S9">
-        <v>0.0008384654029774538</v>
+        <v>0.01074268772147937</v>
       </c>
       <c r="T9">
-        <v>0.0008384654029774539</v>
+        <v>0.01074268772147937</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H10">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I10">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J10">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4298626666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N10">
-        <v>1.289588</v>
+        <v>13.855658</v>
       </c>
       <c r="O10">
-        <v>0.06766742557104236</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P10">
-        <v>0.06766742557104236</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q10">
-        <v>0.008606853599555557</v>
+        <v>2.212606946984889</v>
       </c>
       <c r="R10">
-        <v>0.077461682396</v>
+        <v>19.913462522864</v>
       </c>
       <c r="S10">
-        <v>0.0005305839562445232</v>
+        <v>0.2122264564468787</v>
       </c>
       <c r="T10">
-        <v>0.0005305839562445233</v>
+        <v>0.2122264564468787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8619656666666667</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H11">
-        <v>2.585897</v>
+        <v>1.437208</v>
       </c>
       <c r="I11">
-        <v>0.3375590376547354</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J11">
-        <v>0.3375590376547354</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>5.243417666666667</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N11">
-        <v>15.730253</v>
+        <v>2.037896</v>
       </c>
       <c r="O11">
-        <v>0.8253998362974575</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P11">
-        <v>0.8253998362974574</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q11">
-        <v>4.519646004660111</v>
+        <v>0.3254311593742222</v>
       </c>
       <c r="R11">
-        <v>40.676814041941</v>
+        <v>2.928880434368</v>
       </c>
       <c r="S11">
-        <v>0.2786211744209459</v>
+        <v>0.03121435637970194</v>
       </c>
       <c r="T11">
-        <v>0.2786211744209459</v>
+        <v>0.03121435637970194</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8619656666666667</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H12">
-        <v>2.585897</v>
+        <v>1.437208</v>
       </c>
       <c r="I12">
-        <v>0.3375590376547354</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J12">
-        <v>0.3375590376547354</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6792986666666666</v>
+        <v>0.478937</v>
       </c>
       <c r="N12">
-        <v>2.037896</v>
+        <v>1.436811</v>
       </c>
       <c r="O12">
-        <v>0.1069327381315001</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P12">
-        <v>0.1069327381315001</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q12">
-        <v>0.5855321280791111</v>
+        <v>0.2294440292986666</v>
       </c>
       <c r="R12">
-        <v>5.269789152712</v>
+        <v>2.064996263688</v>
       </c>
       <c r="S12">
-        <v>0.03609611217745499</v>
+        <v>0.0220075659426565</v>
       </c>
       <c r="T12">
-        <v>0.03609611217745499</v>
+        <v>0.02200756594265651</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,46 +1219,294 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8619656666666667</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H13">
-        <v>2.585897</v>
+        <v>1.437208</v>
       </c>
       <c r="I13">
-        <v>0.3375590376547354</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J13">
-        <v>0.3375590376547354</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4298626666666667</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N13">
-        <v>1.289588</v>
+        <v>0.334861</v>
       </c>
       <c r="O13">
-        <v>0.06766742557104236</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P13">
-        <v>0.06766742557104236</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q13">
-        <v>0.3705268600484445</v>
+        <v>0.05347387867644444</v>
       </c>
       <c r="R13">
-        <v>3.334741740436001</v>
+        <v>0.481264908088</v>
       </c>
       <c r="S13">
-        <v>0.02284175105633449</v>
+        <v>0.005129050055382302</v>
       </c>
       <c r="T13">
-        <v>0.02284175105633449</v>
+        <v>0.005129050055382302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.068176</v>
+      </c>
+      <c r="I14">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="J14">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.618552666666667</v>
+      </c>
+      <c r="N14">
+        <v>13.855658</v>
+      </c>
+      <c r="O14">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="P14">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="Q14">
+        <v>0.1049581488675556</v>
+      </c>
+      <c r="R14">
+        <v>0.9446233398080001</v>
+      </c>
+      <c r="S14">
+        <v>0.01006726298122638</v>
+      </c>
+      <c r="T14">
+        <v>0.01006726298122638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.068176</v>
+      </c>
+      <c r="I15">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="J15">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.037896</v>
+      </c>
+      <c r="O15">
+        <v>0.1153620112191035</v>
+      </c>
+      <c r="P15">
+        <v>0.1153620112191036</v>
+      </c>
+      <c r="Q15">
+        <v>0.01543728863288889</v>
+      </c>
+      <c r="R15">
+        <v>0.138935597696</v>
+      </c>
+      <c r="S15">
+        <v>0.001480697268970503</v>
+      </c>
+      <c r="T15">
+        <v>0.001480697268970504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.068176</v>
+      </c>
+      <c r="I16">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="J16">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.478937</v>
+      </c>
+      <c r="N16">
+        <v>1.436811</v>
+      </c>
+      <c r="O16">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P16">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q16">
+        <v>0.01088400297066667</v>
+      </c>
+      <c r="R16">
+        <v>0.097956026736</v>
+      </c>
+      <c r="S16">
+        <v>0.001043960105779087</v>
+      </c>
+      <c r="T16">
+        <v>0.001043960105779087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.068176</v>
+      </c>
+      <c r="I17">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="J17">
+        <v>0.01283522412034115</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.334861</v>
+      </c>
+      <c r="O17">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P17">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q17">
+        <v>0.002536609281777778</v>
+      </c>
+      <c r="R17">
+        <v>0.022829483536</v>
+      </c>
+      <c r="S17">
+        <v>0.0002433037643651746</v>
+      </c>
+      <c r="T17">
+        <v>0.0002433037643651746</v>
       </c>
     </row>
   </sheetData>
